--- a/random_excels/competition_10.xlsx
+++ b/random_excels/competition_10.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E96F057-8C5E-4E54-9EA6-3647D9B32836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1E96F057-8C5E-4E54-9EA6-3647D9B32836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D300E6-302A-4B26-ABCF-A62177BC6F36}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{2ED610C5-ACE9-43CC-B831-E61E771EDAA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2ED610C5-ACE9-43CC-B831-E61E771EDAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>18346950.000000</t>
-  </si>
-  <si>
-    <t>16519955.000000</t>
-  </si>
-  <si>
-    <t>17630290.000000</t>
-  </si>
-  <si>
-    <t>17212480.000000</t>
-  </si>
-  <si>
-    <t>16403320.000000</t>
-  </si>
-  <si>
-    <t>17539455.000000</t>
-  </si>
-  <si>
-    <t>17750865.000000</t>
-  </si>
-  <si>
-    <t>17420090.000000</t>
-  </si>
-  <si>
-    <t>18170305.000000</t>
-  </si>
-  <si>
-    <t>17152260.000000</t>
-  </si>
-  <si>
-    <t>16550670.000000</t>
-  </si>
-  <si>
-    <t>17542420.000000</t>
-  </si>
-  <si>
-    <t>19068935.000000</t>
-  </si>
-  <si>
-    <t>17779325.000000</t>
-  </si>
-  <si>
-    <t>18110955.000000</t>
-  </si>
-  <si>
-    <t>17420860.000000</t>
-  </si>
-  <si>
-    <t>16878345.000000</t>
-  </si>
-  <si>
-    <t>17210465.000000</t>
-  </si>
-  <si>
-    <t>17542850.000000</t>
-  </si>
-  <si>
-    <t>17869340.000000</t>
-  </si>
-  <si>
-    <t>17748950.000000</t>
-  </si>
-  <si>
-    <t>18198445.000000</t>
-  </si>
-  <si>
-    <t>17182925.000000</t>
-  </si>
-  <si>
-    <t>17719365.000000</t>
-  </si>
-  <si>
-    <t>18800090.000000</t>
-  </si>
-  <si>
-    <t>17179230.000000</t>
-  </si>
-  <si>
-    <t>17748355.000000</t>
-  </si>
-  <si>
-    <t>17178755.000000</t>
-  </si>
-  <si>
-    <t>17631610.000000</t>
-  </si>
-  <si>
-    <t>18020285.000000</t>
-  </si>
-  <si>
-    <t>16401060.000000</t>
-  </si>
-  <si>
-    <t>17629595.000000</t>
-  </si>
-  <si>
-    <t>17748840.000000</t>
-  </si>
-  <si>
-    <t>17449020.000000</t>
-  </si>
-  <si>
-    <t>17303225.000000</t>
-  </si>
-  <si>
-    <t>16791020.000000</t>
-  </si>
-  <si>
-    <t>17750105.000000</t>
-  </si>
-  <si>
-    <t>16460200.000000</t>
-  </si>
-  <si>
-    <t>17748485.000000</t>
-  </si>
-  <si>
-    <t>18380680.000000</t>
-  </si>
-  <si>
-    <t>16459930.000000</t>
-  </si>
-  <si>
-    <t>17451645.000000</t>
-  </si>
-  <si>
-    <t>18469240.000000</t>
-  </si>
-  <si>
-    <t>16670255.000000</t>
-  </si>
-  <si>
-    <t>17751830.000000</t>
-  </si>
-  <si>
-    <t>16520780.000000</t>
-  </si>
-  <si>
-    <t>18050915.000000</t>
-  </si>
-  <si>
-    <t>16582440.000000</t>
-  </si>
-  <si>
-    <t>17271975.000000</t>
-  </si>
-  <si>
-    <t>17782050.000000</t>
-  </si>
-  <si>
-    <t>18679140.000000</t>
-  </si>
-  <si>
-    <t>18289180.000000</t>
-  </si>
-  <si>
-    <t>17659260.000000</t>
-  </si>
-  <si>
-    <t>17063110.000000</t>
-  </si>
-  <si>
-    <t>18081105.000000</t>
-  </si>
-  <si>
-    <t>16669920.000000</t>
-  </si>
-  <si>
-    <t>17449940.000000</t>
-  </si>
-  <si>
-    <t>17478875.000000</t>
-  </si>
-  <si>
-    <t>18799845.000000</t>
-  </si>
-  <si>
-    <t>17121095.000000</t>
-  </si>
-  <si>
-    <t>17841375.000000</t>
-  </si>
-  <si>
-    <t>17871580.000000</t>
-  </si>
-  <si>
-    <t>17451480.000000</t>
-  </si>
-  <si>
-    <t>17540475.000000</t>
-  </si>
-  <si>
-    <t>18588660.000000</t>
-  </si>
-  <si>
-    <t>17538585.000000</t>
-  </si>
-  <si>
-    <t>17780180.000000</t>
-  </si>
-  <si>
-    <t>18979670.000000</t>
-  </si>
-  <si>
-    <t>17269635.000000</t>
-  </si>
-  <si>
-    <t>16430220.000000</t>
-  </si>
-  <si>
-    <t>17599375.000000</t>
-  </si>
-  <si>
-    <t>15983065.000000</t>
-  </si>
-  <si>
-    <t>17780825.000000</t>
-  </si>
-  <si>
-    <t>15832180.000000</t>
-  </si>
-  <si>
-    <t>18709170.000000</t>
-  </si>
-  <si>
-    <t>17391025.000000</t>
-  </si>
-  <si>
-    <t>17960410.000000</t>
-  </si>
-  <si>
-    <t>17118245.000000</t>
-  </si>
-  <si>
-    <t>17330735.000000</t>
-  </si>
-  <si>
-    <t>16849650.000000</t>
-  </si>
-  <si>
-    <t>17628445.000000</t>
-  </si>
-  <si>
-    <t>18288725.000000</t>
-  </si>
-  <si>
-    <t>18470985.000000</t>
-  </si>
-  <si>
-    <t>17483315.000000</t>
-  </si>
-  <si>
-    <t>16670375.000000</t>
-  </si>
-  <si>
-    <t>17148935.000000</t>
-  </si>
-  <si>
-    <t>18679455.000000</t>
-  </si>
-  <si>
-    <t>17450485.000000</t>
-  </si>
-  <si>
-    <t>17600230.000000</t>
-  </si>
-  <si>
-    <t>17599290.000000</t>
-  </si>
-  <si>
-    <t>17031015.000000</t>
-  </si>
-  <si>
-    <t>16851000.000000</t>
-  </si>
-  <si>
-    <t>17031520.000000</t>
-  </si>
-  <si>
-    <t>17451170.000000</t>
-  </si>
-  <si>
-    <t>17957820.000000</t>
-  </si>
-  <si>
-    <t>17540295.000000</t>
-  </si>
-  <si>
-    <t>19337515.000000</t>
-  </si>
-  <si>
-    <t>17808995.000000</t>
-  </si>
-  <si>
-    <t>16371980.000000</t>
-  </si>
-  <si>
-    <t>17508395.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -456,9 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -478,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,9 +557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411B8FB-81D2-4656-AE38-9DCEC645EF3F}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +587,7 @@
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>115</v>
       </c>
@@ -1005,11 +707,11 @@
       <c r="S2">
         <v>2480</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>18346950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>106</v>
       </c>
@@ -1067,11 +769,18 @@
       <c r="S3">
         <v>2966</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>16519955</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <f>MAX(T3:T102)</f>
+        <v>19337515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>104</v>
       </c>
@@ -1129,11 +838,18 @@
       <c r="S4">
         <v>3048</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>17630290</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <f>MIN(T3:T102)</f>
+        <v>15832180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>119</v>
       </c>
@@ -1191,11 +907,18 @@
       <c r="S5">
         <v>3063</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>17212480</v>
+      </c>
+      <c r="V5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGEA(T3:T102)</f>
+        <v>17524267.070707072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1253,11 +976,18 @@
       <c r="S6">
         <v>3441</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>16403320</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <f>STDEVA(T3:T102)</f>
+        <v>686060.17534312699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111</v>
       </c>
@@ -1315,11 +1045,11 @@
       <c r="S7">
         <v>2757</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>17539455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -1377,11 +1107,11 @@
       <c r="S8">
         <v>3010</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>17750865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1439,11 +1169,11 @@
       <c r="S9">
         <v>2948</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>17420090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>119</v>
       </c>
@@ -1501,11 +1231,11 @@
       <c r="S10">
         <v>3040</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>18170305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1563,11 +1293,11 @@
       <c r="S11">
         <v>3357</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>17152260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>107</v>
       </c>
@@ -1625,11 +1355,11 @@
       <c r="S12">
         <v>2893</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>16550670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -1687,11 +1417,11 @@
       <c r="S13">
         <v>3188</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>17542420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>114</v>
       </c>
@@ -1749,11 +1479,11 @@
       <c r="S14">
         <v>2973</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>19068935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>115</v>
       </c>
@@ -1811,11 +1541,11 @@
       <c r="S15">
         <v>2749</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>17779325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>107</v>
       </c>
@@ -1873,8 +1603,8 @@
       <c r="S16">
         <v>3184</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>18110955</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1935,8 +1665,8 @@
       <c r="S17">
         <v>2954</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>17420860</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1997,8 +1727,8 @@
       <c r="S18">
         <v>2895</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>16878345</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2059,8 +1789,8 @@
       <c r="S19">
         <v>2934</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>17210465</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2121,8 +1851,8 @@
       <c r="S20">
         <v>3303</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>17542850</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2183,8 +1913,8 @@
       <c r="S21">
         <v>2497</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>17869340</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2245,8 +1975,8 @@
       <c r="S22">
         <v>2959</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>17748950</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2307,8 +2037,8 @@
       <c r="S23">
         <v>2766</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>18198445</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2369,8 +2099,8 @@
       <c r="S24">
         <v>3287</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>17182925</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2431,8 +2161,8 @@
       <c r="S25">
         <v>2688</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>17719365</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2493,8 +2223,8 @@
       <c r="S26">
         <v>2678</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>18800090</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2555,8 +2285,8 @@
       <c r="S27">
         <v>2805</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>17179230</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2617,8 +2347,8 @@
       <c r="S28">
         <v>2796</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>17748355</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2679,8 +2409,8 @@
       <c r="S29">
         <v>2809</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>17178755</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2741,8 +2471,8 @@
       <c r="S30">
         <v>3267</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>17631610</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2803,8 +2533,8 @@
       <c r="S31">
         <v>2853</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>18020285</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2865,8 +2595,8 @@
       <c r="S32">
         <v>3147</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>16401060</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2927,8 +2657,8 @@
       <c r="S33">
         <v>2850</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>17629595</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -2989,8 +2719,8 @@
       <c r="S34">
         <v>2831</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>17748840</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3051,8 +2781,8 @@
       <c r="S35">
         <v>2838</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>17449020</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3113,8 +2843,8 @@
       <c r="S36">
         <v>3151</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>17303225</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3175,8 +2905,8 @@
       <c r="S37">
         <v>2985</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>16791020</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3237,8 +2967,8 @@
       <c r="S38">
         <v>2925</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>17750105</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3299,8 +3029,8 @@
       <c r="S39">
         <v>2878</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>16460200</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3361,8 +3091,8 @@
       <c r="S40">
         <v>2817</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>17748485</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3423,8 +3153,8 @@
       <c r="S41">
         <v>2892</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>18380680</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3485,8 +3215,8 @@
       <c r="S42">
         <v>2900</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>16459930</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3547,8 +3277,8 @@
       <c r="S43">
         <v>2953</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>17451645</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3609,8 +3339,8 @@
       <c r="S44">
         <v>2847</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>18469240</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3671,8 +3401,8 @@
       <c r="S45">
         <v>2974</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>16670255</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3733,8 +3463,8 @@
       <c r="S46">
         <v>3046</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>17751830</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3795,8 +3525,8 @@
       <c r="S47">
         <v>2983</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>16520780</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3857,8 +3587,8 @@
       <c r="S48">
         <v>3139</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>18050915</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3919,8 +3649,8 @@
       <c r="S49">
         <v>3414</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>16582440</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -3981,8 +3711,8 @@
       <c r="S50">
         <v>3164</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>17271975</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4043,8 +3773,8 @@
       <c r="S51">
         <v>2991</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>17782050</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4105,8 +3835,8 @@
       <c r="S52">
         <v>2878</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>18679140</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4167,8 +3897,8 @@
       <c r="S53">
         <v>2813</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>18289180</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4229,8 +3959,8 @@
       <c r="S54">
         <v>2695</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>17659260</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4291,8 +4021,8 @@
       <c r="S55">
         <v>3466</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>17063110</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4353,8 +4083,8 @@
       <c r="S56">
         <v>3096</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>18081105</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4415,8 +4145,8 @@
       <c r="S57">
         <v>2803</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>16669920</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4477,8 +4207,8 @@
       <c r="S58">
         <v>2828</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>17449940</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4539,8 +4269,8 @@
       <c r="S59">
         <v>2832</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>17478875</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4601,8 +4331,8 @@
       <c r="S60">
         <v>2933</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>18799845</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4663,8 +4393,8 @@
       <c r="S61">
         <v>2957</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>17121095</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4725,8 +4455,8 @@
       <c r="S62">
         <v>3003</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>17841375</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4787,8 +4517,8 @@
       <c r="S63">
         <v>3086</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>17871580</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4849,8 +4579,8 @@
       <c r="S64">
         <v>3126</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>17451480</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4911,8 +4641,8 @@
       <c r="S65">
         <v>2971</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>17540475</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4973,8 +4703,8 @@
       <c r="S66">
         <v>2590</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>18588660</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5035,8 +4765,8 @@
       <c r="S67">
         <v>2879</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>17538585</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5097,8 +4827,8 @@
       <c r="S68">
         <v>3040</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>17780180</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5159,8 +4889,8 @@
       <c r="S69">
         <v>2889</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>18979670</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5221,8 +4951,8 @@
       <c r="S70">
         <v>3077</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>17269635</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5283,8 +5013,8 @@
       <c r="S71">
         <v>2919</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>16430220</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5345,8 +5075,8 @@
       <c r="S72">
         <v>2896</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>17599375</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5407,8 +5137,8 @@
       <c r="S73">
         <v>3168</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>15983065</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5469,8 +5199,8 @@
       <c r="S74">
         <v>2968</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>17780825</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5531,8 +5261,8 @@
       <c r="S75">
         <v>3166</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>15832180</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5593,8 +5323,8 @@
       <c r="S76">
         <v>2931</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>18709170</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5655,8 +5385,8 @@
       <c r="S77">
         <v>2965</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>17391025</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5717,8 +5447,8 @@
       <c r="S78">
         <v>2904</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>17960410</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5779,8 +5509,8 @@
       <c r="S79">
         <v>2742</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>17118245</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5841,8 +5571,8 @@
       <c r="S80">
         <v>2759</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>17330735</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5903,8 +5633,8 @@
       <c r="S81">
         <v>3128</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>16849650</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5965,8 +5695,8 @@
       <c r="S82">
         <v>2801</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>17628445</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6027,8 +5757,8 @@
       <c r="S83">
         <v>2939</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>18288725</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6089,8 +5819,8 @@
       <c r="S84">
         <v>2861</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>18470985</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6151,8 +5881,8 @@
       <c r="S85">
         <v>3335</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>17483315</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6213,8 +5943,8 @@
       <c r="S86">
         <v>2956</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>16670375</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6275,8 +6005,8 @@
       <c r="S87">
         <v>2851</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>17148935</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6337,8 +6067,8 @@
       <c r="S88">
         <v>3015</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>18679455</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6399,8 +6129,8 @@
       <c r="S89">
         <v>2920</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>17450485</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6461,8 +6191,8 @@
       <c r="S90">
         <v>2741</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>17600230</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6523,8 +6253,8 @@
       <c r="S91">
         <v>2874</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>17599290</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6585,8 +6315,8 @@
       <c r="S92">
         <v>3035</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>17031015</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6647,8 +6377,8 @@
       <c r="S93">
         <v>3358</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>16851000</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6709,8 +6439,8 @@
       <c r="S94">
         <v>3091</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>17031520</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6771,8 +6501,8 @@
       <c r="S95">
         <v>3019</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>17451170</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6833,8 +6563,8 @@
       <c r="S96">
         <v>2623</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>17957820</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6895,8 +6625,8 @@
       <c r="S97">
         <v>2688</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>17540295</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6957,8 +6687,8 @@
       <c r="S98">
         <v>2598</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>19337515</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7019,8 +6749,8 @@
       <c r="S99">
         <v>2915</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>17808995</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7081,8 +6811,8 @@
       <c r="S100">
         <v>3046</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>16371980</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7143,8 +6873,8 @@
       <c r="S101">
         <v>2795</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>17508395</v>
       </c>
     </row>
   </sheetData>
@@ -7152,557 +6882,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B87B2DE-7267-448A-8B30-0AE101450EC1}">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>18346950</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <f>MAX(A2:A101)</f>
-        <v>19337515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>16519955</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3">
-        <f>MIN(A2:A101)</f>
-        <v>15832180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>17630290</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGEA(A2:A101)</f>
-        <v>17532493.899999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>17212480</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <f>STDEVA(A2:A101)</f>
-        <v>687526.22297779412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>16403320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>17539455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>17750865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>17420090</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>18170305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>17152260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>16550670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>17542420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>19068935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>17779325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>18110955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>17420860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16878345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17210465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>17542850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>17869340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>17748950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>18198445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>17182925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>17719365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>18800090</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>17179230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>17748355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>17178755</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>17631610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>18020285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>16401060</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>17629595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>17748840</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>17449020</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>17303225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>16791020</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>17750105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>16460200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>17748485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>18380680</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>16459930</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>17451645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>18469240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>16670255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>17751830</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>16520780</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>18050915</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>16582440</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>17271975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>17782050</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>18679140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>18289180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>17659260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>17063110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>18081105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>16669920</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>17449940</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>17478875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>18799845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>17121095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>17841375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>17871580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>17451480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>17540475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>18588660</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>17538585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>17780180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>18979670</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>17269635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>16430220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>17599375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>15983065</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>17780825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>15832180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>18709170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>17391025</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>17960410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>17118245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>17330735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>16849650</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>17628445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>18288725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>18470985</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>17483315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>16670375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>17148935</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>18679455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>17450485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>17600230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>17599290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>17031015</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>16851000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>17031520</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>17451170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>17957820</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>17540295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>19337515</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>17808995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>16371980</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>17508395</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
